--- a/Data/EC/NIT-8060071430.xlsx
+++ b/Data/EC/NIT-8060071430.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0489D730-F3C5-4509-A1BC-00C7C5F79543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61556BCC-A5BF-42A8-B46B-BE03705CEB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A26E933D-323E-42EA-95D3-59DFADE80FDC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2583BF67-802F-4686-937B-DE65A782CA46}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,91 +71,91 @@
     <t>BERCELIO FIGUEROA ELLES</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
     <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -569,7 +569,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD05C43F-4399-DA12-B88B-7EF0F68F16C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A86A2A08-BC25-39A6-7A5D-9A12BC7E7E46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -920,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AE183B-1622-4107-A691-DE342CAEA4EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40192FD9-3513-48D6-9F61-F1D779D0AF4C}">
   <dimension ref="B2:J50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
